--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1697816.0223638</v>
+        <v>-1699766.248192361</v>
       </c>
     </row>
     <row r="7">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>181.9865036627673</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>306.9916622497663</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>117.7922612560853</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>268.0851745085559</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -823,13 +823,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>127.0044127072328</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>128.4340426649163</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,16 +896,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>363.9660712333962</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>243.7017266622572</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -914,7 +914,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>128.4340426649163</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>138.8984061512189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>106.2922273570921</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>87.85030042930265</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>135.1157241044941</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>155.2114886365811</v>
       </c>
     </row>
     <row r="11">
@@ -1385,10 +1385,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>5.107731335941573</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>271.7818641996879</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890409</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.287249111317</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274074</v>
@@ -1765,16 +1765,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>46.6274938286879</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,10 +1816,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>155.1311709937395</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,22 +2050,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>54.40320730981902</v>
+        <v>200.4997564950149</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,19 +2287,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>173.977744122554</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>184.823650467166</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>27.55584844405772</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>54.40320730981981</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C28" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898766</v>
       </c>
       <c r="D28" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E28" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789518</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S28" t="n">
         <v>129.7889198539626</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D31" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3004,13 +3004,13 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689372</v>
       </c>
       <c r="V31" t="n">
         <v>184.0057531941873</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069502</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X31" t="n">
         <v>157.5777652593965</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G37" t="n">
         <v>98.36167833373696</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463139</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415219</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1430.355453824634</v>
+        <v>1065.887706993134</v>
       </c>
       <c r="C2" t="n">
-        <v>1061.392936884222</v>
+        <v>696.925190052722</v>
       </c>
       <c r="D2" t="n">
-        <v>751.3003487531453</v>
+        <v>338.6594914459715</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762914</v>
+        <v>338.6594914459715</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2169.72394915887</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W2" t="n">
-        <v>1816.955293888756</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X2" t="n">
-        <v>1816.955293888756</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y2" t="n">
-        <v>1816.955293888756</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="3">
@@ -4401,7 +4401,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,13 +4410,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>182.2302673832259</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C4" t="n">
-        <v>182.2302673832259</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D4" t="n">
-        <v>182.2302673832259</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>471.4038777286579</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="U4" t="n">
-        <v>182.2302673832259</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="V4" t="n">
-        <v>182.2302673832259</v>
+        <v>222.942782082032</v>
       </c>
       <c r="W4" t="n">
-        <v>182.2302673832259</v>
+        <v>222.942782082032</v>
       </c>
       <c r="X4" t="n">
-        <v>182.2302673832259</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y4" t="n">
-        <v>182.2302673832259</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>999.4901647174274</v>
+        <v>923.1150787952342</v>
       </c>
       <c r="C5" t="n">
-        <v>999.4901647174274</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="D5" t="n">
-        <v>641.224466110677</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E5" t="n">
-        <v>641.224466110677</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V5" t="n">
-        <v>2112.324418312743</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>1759.555763042629</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>1386.090004781549</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y5" t="n">
-        <v>1386.090004781549</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4641,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4659,10 +4659,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>211.6913543878343</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="C7" t="n">
-        <v>211.6913543878343</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="D7" t="n">
-        <v>211.6913543878343</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>183.6743380475526</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>439.6809052858516</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T7" t="n">
-        <v>439.6809052858516</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="U7" t="n">
-        <v>439.6809052858516</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="V7" t="n">
-        <v>439.6809052858516</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="W7" t="n">
-        <v>439.6809052858516</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="X7" t="n">
-        <v>211.6913543878343</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="Y7" t="n">
-        <v>211.6913543878343</v>
+        <v>352.6741383092202</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1233.603060210037</v>
+        <v>1626.717708340416</v>
       </c>
       <c r="C8" t="n">
-        <v>864.6405432696254</v>
+        <v>1257.755191400005</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>899.4894927932542</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>899.4894927932542</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>488.5035880036466</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942547</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>1959.837473741231</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>1607.068818471117</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>1233.603060210037</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="Y8" t="n">
-        <v>1233.603060210037</v>
+        <v>2013.317548404538</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4896,7 +4896,7 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>210.7222632714565</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5018,22 +5018,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5042,7 +5042,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5066,22 +5066,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L12" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M12" t="n">
-        <v>966.6932390011336</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1346.676219880509</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5200,19 +5200,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1493.756945976143</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1269.971530765649</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.21084526296</v>
+        <v>980.8428919792069</v>
       </c>
       <c r="V13" t="n">
-        <v>820.5263570570736</v>
+        <v>726.1584037733201</v>
       </c>
       <c r="W13" t="n">
-        <v>545.9992215018333</v>
+        <v>436.7412337363595</v>
       </c>
       <c r="X13" t="n">
-        <v>318.0096706038159</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="14">
@@ -5267,19 +5267,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C15" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D15" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E15" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>2648.155597771317</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>3262.052667528205</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>3569.372800808167</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>3899.2354284722</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>4568.699189774859</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S15" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T15" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U15" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V15" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W15" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X15" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y15" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>376.9270045185177</v>
+        <v>757.4105722479408</v>
       </c>
       <c r="C16" t="n">
-        <v>376.9270045185177</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D16" t="n">
-        <v>376.9270045185177</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E16" t="n">
-        <v>376.9270045185177</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
-        <v>376.9270045185177</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5464,22 +5464,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>1007.357599390305</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V16" t="n">
-        <v>1007.357599390305</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W16" t="n">
-        <v>1007.357599390305</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X16" t="n">
-        <v>779.3680484922876</v>
+        <v>1159.851616221711</v>
       </c>
       <c r="Y16" t="n">
-        <v>558.5754693487575</v>
+        <v>939.0590370781805</v>
       </c>
     </row>
     <row r="17">
@@ -5492,19 +5492,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822463</v>
@@ -5513,25 +5513,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5540,22 +5540,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>2786.879505108311</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>3190.928350499668</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M18" t="n">
-        <v>3959.29649689213</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N18" t="n">
-        <v>4289.159124556162</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O18" t="n">
-        <v>4568.699189774859</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>4773.721670557069</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5698,25 +5698,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U19" t="n">
-        <v>1098.712528333286</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V19" t="n">
-        <v>844.0280401273991</v>
+        <v>964.135741824786</v>
       </c>
       <c r="W19" t="n">
-        <v>554.6108700904385</v>
+        <v>964.135741824786</v>
       </c>
       <c r="X19" t="n">
-        <v>499.6581354340557</v>
+        <v>761.6107352641649</v>
       </c>
       <c r="Y19" t="n">
-        <v>278.8655562905255</v>
+        <v>540.8181561206347</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
         <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5768,34 +5768,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5817,37 +5817,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M21" t="n">
-        <v>841.8631140141288</v>
+        <v>1016.813592216475</v>
       </c>
       <c r="N21" t="n">
-        <v>1646.274692278279</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O21" t="n">
-        <v>1925.814757496976</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>413.0432218861031</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="C22" t="n">
-        <v>244.1070389581962</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="D22" t="n">
-        <v>244.1070389581962</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1323.181175484616</v>
       </c>
       <c r="U22" t="n">
-        <v>1075.21084526296</v>
+        <v>1034.052536698174</v>
       </c>
       <c r="V22" t="n">
-        <v>820.5263570570736</v>
+        <v>779.3680484922876</v>
       </c>
       <c r="W22" t="n">
-        <v>633.8358010296332</v>
+        <v>779.3680484922876</v>
       </c>
       <c r="X22" t="n">
-        <v>633.8358010296332</v>
+        <v>779.3680484922876</v>
       </c>
       <c r="Y22" t="n">
-        <v>413.0432218861031</v>
+        <v>558.5754693487575</v>
       </c>
     </row>
     <row r="23">
@@ -5966,49 +5966,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6020,16 +6020,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6054,37 +6054,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M24" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>2208.321444831246</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>272.964375390212</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>272.964375390212</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>125.0512818078189</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>125.0512818078189</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>125.0512818078189</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>125.0512818078189</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1332.888432463345</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609664</v>
+        <v>1043.759793676903</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550796</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="W25" t="n">
-        <v>441.900558318119</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X25" t="n">
-        <v>441.900558318119</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y25" t="n">
-        <v>441.900558318119</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6206,28 +6206,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6242,7 +6242,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6303,16 +6303,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>940.1463453738959</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.911127126629</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
         <v>2051.878056918008</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C28" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F28" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G28" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H28" t="n">
         <v>139.9315917982973</v>
@@ -6418,16 +6418,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V28" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W28" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X28" t="n">
-        <v>924.2611010045205</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="29">
@@ -6440,25 +6440,25 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
@@ -6473,7 +6473,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6482,7 +6482,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6540,22 +6540,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>1099.417155020476</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M30" t="n">
-        <v>1406.737288300438</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N30" t="n">
-        <v>1736.599915964471</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P30" t="n">
         <v>2536.440602918915</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G31" t="n">
         <v>221.5295092103129</v>
@@ -6661,10 +6661,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
         <v>478.0475988506726</v>
@@ -6862,7 +6862,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649688</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6914,28 +6914,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822457</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514082</v>
@@ -6947,37 +6947,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7002,37 +7002,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>953.6472828615138</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M36" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504506</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649691</v>
@@ -7132,13 +7132,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045206</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="38">
@@ -7151,52 +7151,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7248,25 +7248,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1016.813592216476</v>
+        <v>857.5427825698953</v>
       </c>
       <c r="N39" t="n">
-        <v>1346.676219880509</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O39" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
         <v>2536.440602918915</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982974</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525402</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649694</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7388,52 +7388,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7497,16 +7497,16 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108324</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525402</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045201</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,22 +7722,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>659.3731057211721</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O45" t="n">
         <v>2331.418122136705</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504519</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,19 +7825,19 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
         <v>1304.027639859417</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783523</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8544,10 +8544,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8778,19 +8778,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>50.62661940943661</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>124.340078086322</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,13 +9018,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9170,7 +9170,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9240,22 +9240,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>158.8724419039325</v>
+        <v>104.6241510367944</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9486,22 +9486,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>176.7176547498441</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>199.6230805871095</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298008</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,16 +9729,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>124.3400780863232</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,19 +9951,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>19.14409596997069</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>423.3376789165115</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10191,10 +10191,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>306.114737013996</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,16 +10203,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>124.3400780863232</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,16 +10425,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>253.7371603504736</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,10 +10443,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445217</v>
@@ -10668,10 +10668,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>32.78140656352406</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10908,16 +10908,16 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>176.7176547498455</v>
+        <v>15.83804904622866</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11145,19 +11145,19 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>104.6241510367947</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,22 +11373,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>283.6093329825492</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>253.737160350474</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>200.7473380007132</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,7 +22553,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>264.1381088161765</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22708,13 +22708,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22726,7 +22726,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22753,7 +22753,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22765,13 +22765,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23434,7 +23434,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>192.8130786476617</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>14.7411341369031</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>120.6193272699399</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,10 +23704,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>131.1061814048378</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23905,10 +23905,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,22 +23938,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>171.3064480792181</v>
+        <v>25.20989889402225</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,19 +24175,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>47.56981693583526</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>101.699347869425</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24382,7 +24382,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>82.86339702021428</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>167.1443537485694</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>77466.06243016741</v>
+        <v>77466.06243016747</v>
       </c>
       <c r="C2" t="n">
         <v>82104.17698642831</v>
       </c>
       <c r="D2" t="n">
-        <v>82104.17698642833</v>
+        <v>82104.1769864283</v>
       </c>
       <c r="E2" t="n">
-        <v>78205.81194754175</v>
+        <v>78205.81194754169</v>
       </c>
       <c r="F2" t="n">
-        <v>78205.81194754176</v>
+        <v>78205.81194754172</v>
       </c>
       <c r="G2" t="n">
         <v>78205.81194754176</v>
@@ -26335,25 +26335,25 @@
         <v>78205.81194754178</v>
       </c>
       <c r="J2" t="n">
-        <v>82104.1769864283</v>
+        <v>82104.17698642846</v>
       </c>
       <c r="K2" t="n">
         <v>82104.17698642847</v>
       </c>
       <c r="L2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.17698642834</v>
       </c>
       <c r="M2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.1769864283</v>
       </c>
       <c r="N2" t="n">
+        <v>82104.17698642837</v>
+      </c>
+      <c r="O2" t="n">
         <v>82104.17698642836</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>82104.17698642837</v>
-      </c>
-      <c r="P2" t="n">
-        <v>82104.17698642839</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.11379904410569e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>54505.51210371252</v>
+        <v>54505.51210371259</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,7 +26427,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143913</v>
       </c>
       <c r="G4" t="n">
         <v>15045.6696214391</v>
@@ -26436,28 +26436,28 @@
         <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="J4" t="n">
         <v>37464.45686275959</v>
       </c>
       <c r="K4" t="n">
+        <v>37464.45686275959</v>
+      </c>
+      <c r="L4" t="n">
+        <v>37464.45686275959</v>
+      </c>
+      <c r="M4" t="n">
+        <v>37464.45686275962</v>
+      </c>
+      <c r="N4" t="n">
         <v>37464.45686275957</v>
       </c>
-      <c r="L4" t="n">
-        <v>37464.45686275957</v>
-      </c>
-      <c r="M4" t="n">
-        <v>37464.45686275957</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>37464.45686275959</v>
       </c>
-      <c r="O4" t="n">
-        <v>37464.45686275958</v>
-      </c>
       <c r="P4" t="n">
-        <v>37464.45686275958</v>
+        <v>37464.45686275959</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26482,13 +26482,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>97715.10582002539</v>
@@ -26497,19 +26497,19 @@
         <v>97715.10582002539</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="M5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="N5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="O5" t="n">
         <v>97715.10582002539</v>
       </c>
-      <c r="M5" t="n">
-        <v>97715.10582002539</v>
-      </c>
-      <c r="N5" t="n">
-        <v>97715.10582002539</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>97715.1058200254</v>
-      </c>
-      <c r="P5" t="n">
-        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-725663.0222847366</v>
+        <v>-725778.9751486433</v>
       </c>
       <c r="C6" t="n">
+        <v>-157529.8593282037</v>
+      </c>
+      <c r="D6" t="n">
         <v>-157529.8593282038</v>
       </c>
-      <c r="D6" t="n">
-        <v>-157529.8593282037</v>
-      </c>
       <c r="E6" t="n">
-        <v>-553987.22009951</v>
+        <v>-554084.6792254822</v>
       </c>
       <c r="F6" t="n">
-        <v>-28827.18362261397</v>
+        <v>-28924.64274858622</v>
       </c>
       <c r="G6" t="n">
-        <v>-28827.18362261396</v>
+        <v>-28924.64274858613</v>
       </c>
       <c r="H6" t="n">
-        <v>-28827.18362261397</v>
+        <v>-28924.64274858615</v>
       </c>
       <c r="I6" t="n">
-        <v>-28827.1836226139</v>
+        <v>-28924.64274858611</v>
       </c>
       <c r="J6" t="n">
-        <v>-284004.1169926621</v>
+        <v>-284004.116992662</v>
       </c>
       <c r="K6" t="n">
-        <v>-53075.38569635649</v>
+        <v>-53075.3856963565</v>
       </c>
       <c r="L6" t="n">
-        <v>-53075.38569635658</v>
+        <v>-53075.38569635665</v>
       </c>
       <c r="M6" t="n">
         <v>-187876.4009301937</v>
       </c>
       <c r="N6" t="n">
+        <v>-53075.38569635672</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-107580.8978000692</v>
+      </c>
+      <c r="P6" t="n">
         <v>-53075.38569635663</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-107580.8978000691</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-53075.38569635658</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N2" t="n">
+        <v>68.13189012964061</v>
+      </c>
+      <c r="O2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964069</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26735,40 +26735,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541006</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541006</v>
+      </c>
+      <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="H3" t="n">
+      <c r="K3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964074</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990169</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>47.69137937091671</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>138.7908712331555</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,16 +27540,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>19.4295499393364</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>123.7036006589117</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,16 +27616,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>1.306820537611316</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>163.1743190794542</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>27.73684617687886</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>73.24713279879998</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>307.4919426637029</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>239.9019580408323</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>44.71625607744321</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,13 +28017,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>63.3731647155137</v>
       </c>
     </row>
     <row r="11">
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28311,7 +28311,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>-3.770613451100265e-12</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31759,40 +31759,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,10 +31832,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31844,7 +31844,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31853,10 +31853,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31868,7 +31868,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31932,7 +31932,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31944,10 +31944,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N12" t="n">
-        <v>383.8211928074494</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35574,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>274.9155166742612</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504663</v>
@@ -35738,13 +35738,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>408.1301468599568</v>
+        <v>353.8818559928188</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>487.1420318003106</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P21" t="n">
-        <v>406.7164955186342</v>
+        <v>525.556183571462</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507422</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>331.4334930178478</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>268.401800925995</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>756.5322523145245</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K28" t="n">
         <v>219.8343186595512</v>
@@ -36765,7 +36765,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O28" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P28" t="n">
         <v>246.5154907414414</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>555.3724419700203</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -37002,7 +37002,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P31" t="n">
         <v>246.5154907414414</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>564.1615374009399</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37163,10 +37163,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37242,7 +37242,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,22 +37388,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>282.0391115195484</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,16 +37628,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>487.1420318003117</v>
+        <v>326.2624260966949</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
         <v>88.0130327850741</v>
@@ -37698,25 +37698,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520613</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095691</v>
       </c>
       <c r="M40" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414413</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,19 +37865,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>415.0485280872609</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,22 +38093,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>594.0337100330154</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>536.1008625915821</v>
       </c>
       <c r="P45" t="n">
         <v>207.0934149315246</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
